--- a/msupply_5/src/test/resources/Locators.xlsx
+++ b/msupply_5/src/test/resources/Locators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Key</t>
   </si>
@@ -97,7 +97,7 @@
     <t>MobileNumberField_Xpath</t>
   </si>
   <si>
-    <t>//*[@id='magestore-sociallogin-popup-email']</t>
+    <t>//input[@name='socialogin_email']</t>
   </si>
   <si>
     <t>PasswordField_Xpath</t>
@@ -110,6 +110,60 @@
   </si>
   <si>
     <t>//*[@id='magestore-button-sociallogin']</t>
+  </si>
+  <si>
+    <t>Login_For_Review_And_Rating_LinkText</t>
+  </si>
+  <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>Rating_Text_Xpath</t>
+  </si>
+  <si>
+    <t>(//form[@id='review-form']//div[2])[1]/h5</t>
+  </si>
+  <si>
+    <t>Review_Text_Xpath</t>
+  </si>
+  <si>
+    <t>(//form[@id='review-form']//div[2])[1]/ul/h5</t>
+  </si>
+  <si>
+    <t>Rating_Stars_Xpath</t>
+  </si>
+  <si>
+    <t>(//form[@id='review-form']//div[2])[1]/div[1]/ul/li</t>
+  </si>
+  <si>
+    <t>Empty_Rating_Stars_Xpath</t>
+  </si>
+  <si>
+    <t>(//form[@id='review-form']//div[2])[1]/div[1]/div[2]/input</t>
+  </si>
+  <si>
+    <t>Review_Title_Label_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='review-form']/fieldset/div[2]/ul/li[1]/label</t>
+  </si>
+  <si>
+    <t>Review_Title_TextBox_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='summary_field']</t>
+  </si>
+  <si>
+    <t>Review_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='review-form']/fieldset/div[2]/ul/li[2]/label</t>
+  </si>
+  <si>
+    <t>Review_TextBox_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='review_field']</t>
   </si>
 </sst>
 </file>
@@ -336,23 +390,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="106.239795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="105.025510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -444,35 +498,107 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/msupply_5/src/test/resources/Locators.xlsx
+++ b/msupply_5/src/test/resources/Locators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Key</t>
   </si>
@@ -164,6 +164,24 @@
   </si>
   <si>
     <t>//*[@id='review_field']</t>
+  </si>
+  <si>
+    <t>Submit_Review_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='review-form']/fieldset/div[2]/div[2]/button</t>
+  </si>
+  <si>
+    <t>Review_Title_Textbox_ErrorMsg_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='advice-required-entry-summary_field']</t>
+  </si>
+  <si>
+    <t>Review_Textbox_ErrorMsg_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='advice-required-entry-review_field']</t>
   </si>
 </sst>
 </file>
@@ -173,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -210,12 +228,6 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,10 +318,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,23 +398,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.3265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="105.025510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="74.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="103.80612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -530,75 +538,99 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/msupply_5/src/test/resources/Locators.xlsx
+++ b/msupply_5/src/test/resources/Locators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Key</t>
   </si>
@@ -182,6 +182,36 @@
   </si>
   <si>
     <t>//*[@id='advice-required-entry-review_field']</t>
+  </si>
+  <si>
+    <t>SuccessMessage_Xpath</t>
+  </si>
+  <si>
+    <t>//ul[@class='messages']/li/ul/li</t>
+  </si>
+  <si>
+    <t>HomePage_Account_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='lnkAccount']/a</t>
+  </si>
+  <si>
+    <t>HomePage_Login_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='divAccount']/ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>No_Of_Customer_Reviews_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='col-lg-9 customer_reviews pull-right']/div)</t>
+  </si>
+  <si>
+    <t>Review_Date_Xpath</t>
+  </si>
+  <si>
+    <t>(//li[@class='rvw_title block clear']/div)[2]</t>
   </si>
 </sst>
 </file>
@@ -191,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -228,6 +258,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -284,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,6 +354,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,23 +438,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="74.3826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="103.80612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="73.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="102.729591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -610,27 +650,67 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/msupply_5/src/test/resources/Locators.xlsx
+++ b/msupply_5/src/test/resources/Locators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Key</t>
   </si>
@@ -85,7 +85,7 @@
     <t>Write_Review_Link_Xpath</t>
   </si>
   <si>
-    <t>Write a review</t>
+    <t>Write Your Review</t>
   </si>
   <si>
     <t>Login_For_Review_And_Rating_Xpath</t>
@@ -211,7 +211,13 @@
     <t>Review_Date_Xpath</t>
   </si>
   <si>
-    <t>(//li[@class='rvw_title block clear']/div)[2]</t>
+    <t>((//li[@class='rvw_title block clear']/div[2]))</t>
+  </si>
+  <si>
+    <t>No_of_Customer_Reviews_DetailsPage_Xpath</t>
+  </si>
+  <si>
+    <t>//p[@class='rating-links customreview']/a[1]</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -541,7 +547,7 @@
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -711,6 +717,14 @@
       </c>
       <c r="B32" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/msupply_5/src/test/resources/Locators.xlsx
+++ b/msupply_5/src/test/resources/Locators.xlsx
@@ -20,17 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="526">
   <si>
     <t>Key</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Locators</t>
   </si>
   <si>
     <t>Navigation_Shop_Xpath</t>
   </si>
   <si>
+    <t>XPATH</t>
+  </si>
+  <si>
     <t>//a[@id='showhide1'and @class='default showhide1']</t>
   </si>
   <si>
@@ -49,7 +55,7 @@
     <t>Navigation_Buildingmaterial_Cement_PPC_Xpath</t>
   </si>
   <si>
-    <t>//*[@id='menuBLock']/li[2]/ul/li[3]/ul/div[1]/li[5]/a</t>
+    <t>//*[@id='menuBLock']/li[2]/ul/li[3]/ul/div[1]/li[3]/a</t>
   </si>
   <si>
     <t>closeIcon_xpath</t>
@@ -58,10 +64,13 @@
     <t>//*[@id='x']</t>
   </si>
   <si>
-    <t>Buildingmaterial_Cement_Product1_Xpath</t>
-  </si>
-  <si>
-    <t>(//div[@class='category-products']/following::div[@class='product-name'])[1]</t>
+    <t>Buildingmaterial_Cement_Product1_Staging_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='category-products']/following::div[@class='product-name'])[7]</t>
+  </si>
+  <si>
+    <t>Buildingmaterial_Cement_Product1_Production_Xpath</t>
   </si>
   <si>
     <t>ZipCode_POPUP_xpath</t>
@@ -85,6 +94,9 @@
     <t>Write_Review_Link_Xpath</t>
   </si>
   <si>
+    <t>LINKTEXT</t>
+  </si>
+  <si>
     <t>Write Your Review</t>
   </si>
   <si>
@@ -133,6 +145,9 @@
     <t>Rating_Stars_Xpath</t>
   </si>
   <si>
+    <t>XPATH_S</t>
+  </si>
+  <si>
     <t>(//form[@id='review-form']//div[2])[1]/div[1]/ul/li</t>
   </si>
   <si>
@@ -190,18 +205,6 @@
     <t>//ul[@class='messages']/li/ul/li</t>
   </si>
   <si>
-    <t>HomePage_Account_Xpath</t>
-  </si>
-  <si>
-    <t>//*[@id='lnkAccount']/a</t>
-  </si>
-  <si>
-    <t>HomePage_Login_Xpath</t>
-  </si>
-  <si>
-    <t>//*[@id='divAccount']/ul/li[1]/a</t>
-  </si>
-  <si>
     <t>No_Of_Customer_Reviews_Xpath</t>
   </si>
   <si>
@@ -218,6 +221,1383 @@
   </si>
   <si>
     <t>//p[@class='rating-links customreview']/a[1]</t>
+  </si>
+  <si>
+    <t>Review_1</t>
+  </si>
+  <si>
+    <t>(//li[@class='rvw_title block clear']/div[1])[1]</t>
+  </si>
+  <si>
+    <t>Review_2</t>
+  </si>
+  <si>
+    <t>(//li[@class='rvw_title block clear']/div[1])[2]</t>
+  </si>
+  <si>
+    <t>Review_link_Bottom_ProductPage_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='customer-reviews']/div[3]/a</t>
+  </si>
+  <si>
+    <t>Review_Page_Title_Xpath</t>
+  </si>
+  <si>
+    <t>html/body/div[3]/div[2]/div[2]/div/div[2]/div/div/h5/b</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>//*[@id='seo_section']/ul[7]/li[2]/a</t>
+  </si>
+  <si>
+    <t>ZipCodePOPUP_Xpath</t>
+  </si>
+  <si>
+    <t>ZipCodePOPUP_GoButton_Xpath</t>
+  </si>
+  <si>
+    <t>Magento_Catalog_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='nav']/li[1]/a</t>
+  </si>
+  <si>
+    <t>Magento_UserName_Xpath</t>
+  </si>
+  <si>
+    <t>//form[@id='loginForm']/div/div[2]/input</t>
+  </si>
+  <si>
+    <t>Magento_Password_Xpath</t>
+  </si>
+  <si>
+    <t>//form[@id='loginForm']/div/div[3]/input[2]</t>
+  </si>
+  <si>
+    <t>Magento_Login_Button_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='loginForm']/div/div[5]/input</t>
+  </si>
+  <si>
+    <t>Magento_Reviews_Ratings_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='nav']/li[1]/ul/li[2]/a/span</t>
+  </si>
+  <si>
+    <t>Magento_CustomerReviews_Ratings_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='nav']/li[1]/ul/li[2]/ul/li[1]/a/span</t>
+  </si>
+  <si>
+    <t>Magento_AllCustomerReviews_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='nav']/li[1]/ul/li[2]/ul/li[1]/ul/li[2]/a/span</t>
+  </si>
+  <si>
+    <t>Magento_EditStatus_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid_table']/tbody/tr[1]/td[11]/a</t>
+  </si>
+  <si>
+    <t>Magento_EditStatus_2_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid_table']/tbody/tr[2]/td[11]/a</t>
+  </si>
+  <si>
+    <t>Magento_StatusUpdate_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='status_id']</t>
+  </si>
+  <si>
+    <t>Magento_SaveReview_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='save_button']</t>
+  </si>
+  <si>
+    <t>ProductDetailsPage_ReviewDateOne_Xpath</t>
+  </si>
+  <si>
+    <t>((//li[@class='rvw_title block clear']/div[2]))[1]</t>
+  </si>
+  <si>
+    <t>ProductDetailsPage_ReviewDateTwo_Xpath</t>
+  </si>
+  <si>
+    <t>((//li[@class='rvw_title block clear']/div[2]))[2]</t>
+  </si>
+  <si>
+    <t>Magento_SearchSKU_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid_filter_sku']</t>
+  </si>
+  <si>
+    <t>Magento_SearchButtonSKU_Xpath</t>
+  </si>
+  <si>
+    <t>//td[@class='filter-actions a-right']/button[2]</t>
+  </si>
+  <si>
+    <t>Magento_PendingReviews_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='nav']/li[1]/ul/li[2]/ul/li[1]/ul/li[1]/a/span</t>
+  </si>
+  <si>
+    <t>Magento_NumberOfPendingReviews_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid']/div[4]/table/tbody/tr/td[1]</t>
+  </si>
+  <si>
+    <t>Magento_RecentReviewTitle_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid_table']/tbody/tr[1]/td[4]</t>
+  </si>
+  <si>
+    <t>Magento_RecentReviewStatus_Xpath</t>
+  </si>
+  <si>
+    <t>Magento_SelectOptions_Xpath</t>
+  </si>
+  <si>
+    <t>Magento_RecentReviewStatus_2_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid_table']/tbody/tr[2]/td[4]</t>
+  </si>
+  <si>
+    <t>Magento_RecentReviewStatus_3_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid_table']/tbody/tr[3]/td[4]</t>
+  </si>
+  <si>
+    <t>Magento_ReviewTitle_1_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid_table']/tbody/tr[1]/td[5]</t>
+  </si>
+  <si>
+    <t>Magento_ReviewTitle_2_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid_table']/tbody/tr[2]/td[5]</t>
+  </si>
+  <si>
+    <t>Magento_ReviewTitle_3_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='reviwGrid_table']/tbody/tr[3]/td[5]</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>html/body/div[3]/div[2]/div[3]/div/div/div[3]/a/img</t>
+  </si>
+  <si>
+    <t>ProductDetailsPage_AddToListButton_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='product-addtocart-button'][2]</t>
+  </si>
+  <si>
+    <t>KartPage_PlaceOrderButton_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='checkout-types chkop']/button</t>
+  </si>
+  <si>
+    <t>AddressBilling_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='919']/address</t>
+  </si>
+  <si>
+    <t>AddressShipping_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='shipping_fields']/div/div/div[2]/div/address</t>
+  </si>
+  <si>
+    <t>ChequeOption_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='tab_paymentcheque_checkout']</t>
+  </si>
+  <si>
+    <t>ChequeOption_ContinueButton_Xpath</t>
+  </si>
+  <si>
+    <t>(//*[@id='payment-buttons-container']/button)[5]</t>
+  </si>
+  <si>
+    <t>ConfirmOrderAndBuy_Xpath</t>
+  </si>
+  <si>
+    <t>//button[@class='button btn-checkout']/span/span[text()='CONFIRM ORDER &amp; BUY']</t>
+  </si>
+  <si>
+    <t>SaveAndContinueButton_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='billing-buttons-container']/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>SaveAndContinueButton_Shipping_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='shipping-buttons-container']/div[3]/span[3]/button</t>
+  </si>
+  <si>
+    <t>MyOrders_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='divLoggedUser']/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>Delivered_Option_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='deliveredOrder']</t>
+  </si>
+  <si>
+    <t>AdminPanel_Email_Xpath</t>
+  </si>
+  <si>
+    <t>//form[@class='login-form ng-pristine ng-valid']/label[1]/input</t>
+  </si>
+  <si>
+    <t>AdminPanel_PasswordField_Xpath</t>
+  </si>
+  <si>
+    <t>html/body/div[2]/div/form/label[2]/input</t>
+  </si>
+  <si>
+    <t>ClickHere_LinkText_LinkText</t>
+  </si>
+  <si>
+    <t>Click here</t>
+  </si>
+  <si>
+    <t>AdminPanel_LoginButton_Xpath</t>
+  </si>
+  <si>
+    <t>html/body/div[2]/div/form/button</t>
+  </si>
+  <si>
+    <t>ManageOrder_Xpath</t>
+  </si>
+  <si>
+    <t>html/body/div[3]/div[1]/ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>First_OrderNumber_Xpath</t>
+  </si>
+  <si>
+    <t>(//*[@class='turquoise'])[1]</t>
+  </si>
+  <si>
+    <t>Xpath_Part_1</t>
+  </si>
+  <si>
+    <t>//table[@class='table table-striped table-hover manage-table']/tbody/tr[</t>
+  </si>
+  <si>
+    <t>Xpath_Part_2</t>
+  </si>
+  <si>
+    <t>]/td[1]/a</t>
+  </si>
+  <si>
+    <t>AdminPanel_ConfirmButton_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='order-btn-block']//button)[2]</t>
+  </si>
+  <si>
+    <t>AdminPanel_UpdateButton_Xpath</t>
+  </si>
+  <si>
+    <t>(//button[@type='submit'])[17]</t>
+  </si>
+  <si>
+    <t>AdminPanel_SelectDropDown_Xpath</t>
+  </si>
+  <si>
+    <t>//select[@class='ng-pristine ng-valid']</t>
+  </si>
+  <si>
+    <t>AdminPanel_UpdateButton_1_Xpath</t>
+  </si>
+  <si>
+    <t>html/body/div[3]/div[2]/div/div[3]/div/div/div[3]/div/div/div[2]/div[2]/div/div/a/button[2]</t>
+  </si>
+  <si>
+    <t>AdminPanel_AcceptButton_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='button-block ng-scope']/div/button[1]</t>
+  </si>
+  <si>
+    <t>AdminPanel_ReadyToShipButton_Xpath</t>
+  </si>
+  <si>
+    <t>AdminPanel_ShipOrderButton_Xpath</t>
+  </si>
+  <si>
+    <t>AdminPanel_DeliverButton_Xpath</t>
+  </si>
+  <si>
+    <t>GooglePlay_Promo_Xpath</t>
+  </si>
+  <si>
+    <t>AndroidPage_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='body-content']/div/div/div[1]/div[1]/div/div[1]/div/div[2]/h1/div</t>
+  </si>
+  <si>
+    <t>AllOrders_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//div[@id='accordion-content'])/div[</t>
+  </si>
+  <si>
+    <t>AllOrders_Xpath_2</t>
+  </si>
+  <si>
+    <t>]/div[1]/h6[1]/b</t>
+  </si>
+  <si>
+    <t>AllOrders_ViewDetails_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='order-item-row-3697']/td[4]/form/button</t>
+  </si>
+  <si>
+    <t>SellerReview_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='my-orders-table']/tbody/tr[2]/td[2]/div/form/button</t>
+  </si>
+  <si>
+    <t>SellerReview_Tab_Xpath</t>
+  </si>
+  <si>
+    <t>//form[@class='login-form review-form ng-pristine ng-valid']/div/h4</t>
+  </si>
+  <si>
+    <t>Submit_SellerReview_Xpath</t>
+  </si>
+  <si>
+    <t>html/body/div[3]/div[2]/div[2]/div/div/div/div[2]/form/div/div/div[5]/button</t>
+  </si>
+  <si>
+    <t>Rating_Stars_Errormsg_Xpath</t>
+  </si>
+  <si>
+    <t>//ul[@class='rating_sr']//following::span[1]</t>
+  </si>
+  <si>
+    <t>SellerOrders_Rating_Stars_Xpath</t>
+  </si>
+  <si>
+    <t>(//ul[@class='rating_sr'])/li</t>
+  </si>
+  <si>
+    <t>ReviewTitle_Errormsg_Xpath</t>
+  </si>
+  <si>
+    <t>(//form[@class='login-form review-form ng-pristine ng-valid']//span)[3]</t>
+  </si>
+  <si>
+    <t>ReviewTitle_TextBox_Xpath</t>
+  </si>
+  <si>
+    <t>//form[@class='login-form review-form ng-pristine ng-valid']//input</t>
+  </si>
+  <si>
+    <t>SellerReview_TextBox_Xpath</t>
+  </si>
+  <si>
+    <t>html/body/div[3]/div[2]/div[2]/div/div/div/div[2]/form/div/div/div[4]/textarea</t>
+  </si>
+  <si>
+    <t>SellerReview_POPOUP_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='close_popup_seller']</t>
+  </si>
+  <si>
+    <t>Plumbing_Diameter_Measure_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='plumbing_diameter_measure']</t>
+  </si>
+  <si>
+    <t>Plumbing_PipesFittings_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='seo_section']/ul[3]/li[3]/a</t>
+  </si>
+  <si>
+    <t>Plumbing_Diameter_Xpath</t>
+  </si>
+  <si>
+    <t>//select[@id='diameter']</t>
+  </si>
+  <si>
+    <t>Plumbing_Pressure_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='plumbing_pressures']</t>
+  </si>
+  <si>
+    <t>Plumbing_Brand_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='plumbing_brand']</t>
+  </si>
+  <si>
+    <t>Plumbing_FindProducts_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='filters']/div[7]/button</t>
+  </si>
+  <si>
+    <t>Plumbing_AddProducts_Xpath_1</t>
+  </si>
+  <si>
+    <t>//*[@id='FittingsTable']/tbody/tr[</t>
+  </si>
+  <si>
+    <t>Plumbing_AddProducts_Xpath_2</t>
+  </si>
+  <si>
+    <t>]/td[4]/button</t>
+  </si>
+  <si>
+    <t>Plumbing_PipeType_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='filters']/div[1]/div[2]/div[1]/label</t>
+  </si>
+  <si>
+    <t>ProductnamePipe_Xpath_1</t>
+  </si>
+  <si>
+    <t>ProductnamePipe_Xpath_2</t>
+  </si>
+  <si>
+    <t>]/td[2]/div[1]</t>
+  </si>
+  <si>
+    <t>ProductNameListPage_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='product-list clear plumb-listbox product-54298']/div[2]</t>
+  </si>
+  <si>
+    <t>AllProductNameListPage_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='list']/div/div[2])</t>
+  </si>
+  <si>
+    <t>GetBestPrice_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='clear block text-center mt1em']/button</t>
+  </si>
+  <si>
+    <t>Buy_Button_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='buy_btn']</t>
+  </si>
+  <si>
+    <t>EnterQuantityTextBox_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='qty_auto']</t>
+  </si>
+  <si>
+    <t>ZipCodeTextBox_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='zip_input']</t>
+  </si>
+  <si>
+    <t>SearchButton_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='search_by_zip']</t>
+  </si>
+  <si>
+    <t>PincodeErrorMsg_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class=' clear plumb-listbox btn-block no-border']/div[3]</t>
+  </si>
+  <si>
+    <t>SellerTable_Xpath_1</t>
+  </si>
+  <si>
+    <t>//table[@class='table table-condensed sellertable']/tbody/tr[</t>
+  </si>
+  <si>
+    <t>SellerTable_Xpath_2</t>
+  </si>
+  <si>
+    <t>]/td[6]/input</t>
+  </si>
+  <si>
+    <t>SellerName_Xpath_1</t>
+  </si>
+  <si>
+    <t>//table[@class='table table-condensed sellertable']/tbody/tr[1]/td[</t>
+  </si>
+  <si>
+    <t>SellerName_Xpath_2</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>Sellername_KartTable_Xpath</t>
+  </si>
+  <si>
+    <t>//table[@class='cart-table bdtable table table-condensed']/tbody/tr[1]/td[3]</t>
+  </si>
+  <si>
+    <t>LoginPopup_Text_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='magestore-sociallogin-form']/div[1]/h3</t>
+  </si>
+  <si>
+    <t>CPVC_Option_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='filters']/div[1]/div[2]/div[4]/label</t>
+  </si>
+  <si>
+    <t>Plumbing_Class_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='plumbing_grade']</t>
+  </si>
+  <si>
+    <t>AddPipes_Xpath_1</t>
+  </si>
+  <si>
+    <t>//*[@id='PipesTable']/tbody/tr[</t>
+  </si>
+  <si>
+    <t>AddPipes_Xpath_2</t>
+  </si>
+  <si>
+    <t>Pipename_Xpath_1</t>
+  </si>
+  <si>
+    <t>Pipename_Xpath_2</t>
+  </si>
+  <si>
+    <t>UnitPrice_List_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//div[@class='list']/div)[</t>
+  </si>
+  <si>
+    <t>UnitPrice_List_Xpath_2</t>
+  </si>
+  <si>
+    <t>]/div[5]/div[1]</t>
+  </si>
+  <si>
+    <t>TotalPrice_List_Xpath_1</t>
+  </si>
+  <si>
+    <t>TotalPrice_List_Xpath_2</t>
+  </si>
+  <si>
+    <t>]/div[5]/div[2]</t>
+  </si>
+  <si>
+    <t>ChangebrandPopUp_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='changebrand']/div[1]/h5</t>
+  </si>
+  <si>
+    <t>YesButton_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='yes']</t>
+  </si>
+  <si>
+    <t>NoButton_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='no']</t>
+  </si>
+  <si>
+    <t>MinusButton_Xpath</t>
+  </si>
+  <si>
+    <t>//input[@id='qty_auto']/following::input[1]</t>
+  </si>
+  <si>
+    <t>PlusButton_Xpath</t>
+  </si>
+  <si>
+    <t>//input[@id='qty_auto']/following::input[2]</t>
+  </si>
+  <si>
+    <t>ErrorMsgEmptyValue_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='error_moq']</t>
+  </si>
+  <si>
+    <t>Plumbing_ImageListSection_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//div[@class='list']/div/div[1]/img)[</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>Plumbing_Diameter_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//div[@class='list']/div/div[4]/div[1])[</t>
+  </si>
+  <si>
+    <t>Quantity_TextBox_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//*[@id='qty_auto'])[</t>
+  </si>
+  <si>
+    <t>TotalQuantity_Text_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class=' clear plumb-listbox totalList']/div/div)[1]</t>
+  </si>
+  <si>
+    <t>TotalQuantity_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class=' clear plumb-listbox totalList']/div/div)[2]</t>
+  </si>
+  <si>
+    <t>SubTotal_TextBox_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class=' clear plumb-listbox totalList']/div[2]/div)[1]</t>
+  </si>
+  <si>
+    <t>SubTotal_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class=' clear plumb-listbox totalList']/div[2]/div)[2]</t>
+  </si>
+  <si>
+    <t>Plumbing_DeleteButton_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='list']/div/div[3]/div/a)[</t>
+  </si>
+  <si>
+    <t>Navigation_SubCategory_Xpath</t>
+  </si>
+  <si>
+    <t>(//ul[@class='subNavLevel1'])</t>
+  </si>
+  <si>
+    <t>Main_Category_Xpath</t>
+  </si>
+  <si>
+    <t>(//li[@class='mainNav show'])</t>
+  </si>
+  <si>
+    <t>Product_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='category-products']/following::div[@class='product-name'])</t>
+  </si>
+  <si>
+    <t>Popup_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-header']/img</t>
+  </si>
+  <si>
+    <t>Hero_Images_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='homeSlideShow']/div[1]</t>
+  </si>
+  <si>
+    <t>All_Hero_Images_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='homeSlideShow']/div[1]/div/div/div/a/img</t>
+  </si>
+  <si>
+    <t>BrandImage_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='brandSlider']/div[1]</t>
+  </si>
+  <si>
+    <t>All_BrandImage_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='brandSlider']/div[1]/div/div</t>
+  </si>
+  <si>
+    <t>Eight_Category_Section_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='produts_nav']</t>
+  </si>
+  <si>
+    <t>CategoryName_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav']/h1)</t>
+  </si>
+  <si>
+    <t>Marketing_Promos_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'])[</t>
+  </si>
+  <si>
+    <t>Marketing_Promos_Xpath_2</t>
+  </si>
+  <si>
+    <t>]/following::div[1]</t>
+  </si>
+  <si>
+    <t>Seller_Image_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'][8])/following::div[2]/img</t>
+  </si>
+  <si>
+    <t>Customer_Text_Xpath</t>
+  </si>
+  <si>
+    <t>((//div[@id='produts_nav'][8])/following::div[2]/div[1]/div/form/div/h4/following::p)[1]</t>
+  </si>
+  <si>
+    <t>ServiceProvide_Text_Xpath</t>
+  </si>
+  <si>
+    <t>((//div[@id='produts_nav'][8])/following::div[2]/div[1]/div/form/div/h4/following::p)[2]</t>
+  </si>
+  <si>
+    <t>Customer_Testimonials_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='carousel-custom']</t>
+  </si>
+  <si>
+    <t>Customer_Testimonials_HeaderText_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='carousel-custom']/h1</t>
+  </si>
+  <si>
+    <t>Footer_Section_1_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='wrapper']/div[3]</t>
+  </si>
+  <si>
+    <t>Footer_Section_2_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='wrapper']/div[4]</t>
+  </si>
+  <si>
+    <t>Footer_Section_3_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='wrapper']/div[5]</t>
+  </si>
+  <si>
+    <t>PaymentMethod_Text_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='wrapper']/div[4]/div/h3)[1]</t>
+  </si>
+  <si>
+    <t>PaymentMethod_Types_Xpath</t>
+  </si>
+  <si>
+    <t>((//div[@class='wrapper']/div[4]/div/h3)[1]/following::ul)[1]/li/img</t>
+  </si>
+  <si>
+    <t>DeliveryPartner_Text_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='wrapper']/div[4]/div/h3)[2]</t>
+  </si>
+  <si>
+    <t>DeliveryPartner_Types_Xpath</t>
+  </si>
+  <si>
+    <t>((//div[@class='wrapper']/div[4]/div/h3)[1]/following::ul)[2]/li/img</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>mSupply_Logo_Image_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='mainLogo']/a/img[1]</t>
+  </si>
+  <si>
+    <t>HomePage_ShoppingKart_Xpath</t>
+  </si>
+  <si>
+    <t>(//li[@id='lnkAccount']/following::li/a)[1]</t>
+  </si>
+  <si>
+    <t>HomePageAccount_Xpath</t>
+  </si>
+  <si>
+    <t>//li[@id='lnkAccount']/a</t>
+  </si>
+  <si>
+    <t>HomePageLogin_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='divAccount']/ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>HomePageSignIn_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='divAccount']/ul/li[2]/label/a</t>
+  </si>
+  <si>
+    <t>HomePage_BecomeSeller_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='text-right banner-top']/a[3]</t>
+  </si>
+  <si>
+    <t>Homepage_GooglePlay_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='text-right banner-top']/a[2]</t>
+  </si>
+  <si>
+    <t>HomePage_ServiceProvider_Xpath</t>
+  </si>
+  <si>
+    <t>//b[text()='Service Provider']</t>
+  </si>
+  <si>
+    <t>HomePage_ServiceProvider_Logo_Xpath</t>
+  </si>
+  <si>
+    <t>//select[@ng-model='check']</t>
+  </si>
+  <si>
+    <t>MarketingPromos_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'])[1]/following::div[1]</t>
+  </si>
+  <si>
+    <t>MarketingPromos_Xpath_2</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'])[2]/following::div[1]</t>
+  </si>
+  <si>
+    <t>MarketingPromos_Xpath_3</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'])[3]/following::div[1]</t>
+  </si>
+  <si>
+    <t>MarketingPromos_Xpath_4</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'])[4]/following::div[1]</t>
+  </si>
+  <si>
+    <t>MarketingPromos_Xpath_5</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'])[5]/following::div[1]</t>
+  </si>
+  <si>
+    <t>MarketingPromos_Xpath_6</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'])[6]/following::div[1]</t>
+  </si>
+  <si>
+    <t>MarketingPromos_Xpath_7</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'])[7]/following::div[1]</t>
+  </si>
+  <si>
+    <t>MarketingPromos_Xpath_8</t>
+  </si>
+  <si>
+    <t>(//div[@id='produts_nav'])[8]/following::div[1]</t>
+  </si>
+  <si>
+    <t>Contact_Details_Xpath</t>
+  </si>
+  <si>
+    <t>(//li[@id='lnkConnect']/a/following::div[1]/ul/li)[1]</t>
+  </si>
+  <si>
+    <t>Contact_Details_Xpath_1</t>
+  </si>
+  <si>
+    <t>Contact_Details_Xpath_2</t>
+  </si>
+  <si>
+    <t>Email_Details_Xpath</t>
+  </si>
+  <si>
+    <t>(//li[@id='lnkConnect']/a/following::div[2]/ul/li)[2]</t>
+  </si>
+  <si>
+    <t>Email_Details_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//li[@id='lnkConnect']/a/following::div[2]/ul/li)[1]</t>
+  </si>
+  <si>
+    <t>Email_Details_Xpath_2</t>
+  </si>
+  <si>
+    <t>Contact_Header_Xpath</t>
+  </si>
+  <si>
+    <t>(//li[@id='lnkConnect']/a)[1]</t>
+  </si>
+  <si>
+    <t>Email_Header_Xpath</t>
+  </si>
+  <si>
+    <t>(//li[@id='lnkConnect']/following::li/a)[1]</t>
+  </si>
+  <si>
+    <t>Footer_Links_1_Xpath</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address msupply_help']/li/a)</t>
+  </si>
+  <si>
+    <t>Footer_Links_1_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address msupply_help']/li/a)[1]</t>
+  </si>
+  <si>
+    <t>Footer_Links_1_Xpath_2</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address msupply_help']/li/a)[2]</t>
+  </si>
+  <si>
+    <t>Footer_Links_1_Xpath_3</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address msupply_help']/li/a)[3]</t>
+  </si>
+  <si>
+    <t>Footer_Links_1_Xpath_4</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address msupply_help']/li/a)[4]</t>
+  </si>
+  <si>
+    <t>Footer_Links_1_Xpath_5</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address msupply_help']/li/a)[5]</t>
+  </si>
+  <si>
+    <t>Header_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='page-title']/h1</t>
+  </si>
+  <si>
+    <t>OurTeam_HeaderPage_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='img-desc']/div[text()='Ishwar Subramanian']</t>
+  </si>
+  <si>
+    <t>Footer_Links_2_Xpath</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address']/li/a)</t>
+  </si>
+  <si>
+    <t>Footer_Links_2_Xpath_1</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address']/li/a)[1]</t>
+  </si>
+  <si>
+    <t>Footer_Links_2_Xpath_2</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address']/li/a)[2]</t>
+  </si>
+  <si>
+    <t>Footer_Links_2_Xpath_3</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address']/li/a)[3]</t>
+  </si>
+  <si>
+    <t>Footer_Links_2_Xpath_4</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address']/li/a)[4]</t>
+  </si>
+  <si>
+    <t>Footer_Links_2_Xpath_5</t>
+  </si>
+  <si>
+    <t>(//ul[@class='list-address']/li/a)[5]</t>
+  </si>
+  <si>
+    <t>SocialMediaLinks_Xpaths</t>
+  </si>
+  <si>
+    <t>(//div[@class='list-social-box']/ul/li)</t>
+  </si>
+  <si>
+    <t>SocialMediaLinks_Xpaths_1</t>
+  </si>
+  <si>
+    <t>(//div[@class='list-social-box']/ul/li)[1]</t>
+  </si>
+  <si>
+    <t>SocialMediaLinks_Xpaths_2</t>
+  </si>
+  <si>
+    <t>(//div[@class='list-social-box']/ul/li)[2]</t>
+  </si>
+  <si>
+    <t>SocialMediaLinks_Xpaths_3</t>
+  </si>
+  <si>
+    <t>(//div[@class='list-social-box']/ul/li)[3]</t>
+  </si>
+  <si>
+    <t>SocialMediaLinks_Xpaths_4</t>
+  </si>
+  <si>
+    <t>(//div[@class='list-social-box']/ul/li)[4]</t>
+  </si>
+  <si>
+    <t>DownloadApp_Xpath</t>
+  </si>
+  <si>
+    <t>//ul[@class='divide-width1']/li/a</t>
+  </si>
+  <si>
+    <t>ProductQuickLinks_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@id='seo_section']/ul/li/a)</t>
+  </si>
+  <si>
+    <t>Navigation_AllCategory_Xpath</t>
+  </si>
+  <si>
+    <t>Search_Box_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='form-search top-space']/input</t>
+  </si>
+  <si>
+    <t>Search_Box_Button_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='form-search top-space']/button</t>
+  </si>
+  <si>
+    <t>PageName_Xpath</t>
+  </si>
+  <si>
+    <t>//dd[@id='blockCategory']/ol/li/a</t>
+  </si>
+  <si>
+    <t>First_BrandImage_Slider_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@id='brandSlider']/div[1]/div/div/div/img)[1]</t>
+  </si>
+  <si>
+    <t>Tenth_BrandImage_Slider_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@id='brandSlider']/div[1]/div/div/div/img)[50]</t>
+  </si>
+  <si>
+    <t>BrandImage_RightArrowButton_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='brandSlider']/div[2]/div/div[1]/a/i</t>
+  </si>
+  <si>
+    <t>BrandImage_LeftArrowButton_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='brandSlider']/div[2]/div/div[2]/a/i</t>
+  </si>
+  <si>
+    <t>ServiceProvider_registerButton_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='half-width seller-form-block']/button</t>
+  </si>
+  <si>
+    <t>Customer_AskNow_Button_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='half-width seller-form-block']/div[5]/button</t>
+  </si>
+  <si>
+    <t>Customer_NameTextField_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='half-width seller-form-block']/div/input)[1]</t>
+  </si>
+  <si>
+    <t>Customer_MobileTextField_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='half-width seller-form-block']/div/input)[2]</t>
+  </si>
+  <si>
+    <t>Customer_EmailTextField_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='half-width seller-form-block']/div/input)[3]</t>
+  </si>
+  <si>
+    <t>Customer_MessageTextField_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='half-width seller-form-block']/div/textarea)</t>
+  </si>
+  <si>
+    <t>Customer_ButtonField_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='half-width seller-form-block']/div/button)</t>
+  </si>
+  <si>
+    <t>ServiceProvider_NameTextField_Xpath</t>
+  </si>
+  <si>
+    <t>ServiceProvider_MobileTextField_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='half-width seller-form-block']/div/input)[4]</t>
+  </si>
+  <si>
+    <t>ServiceProvider_SelectDropDown_VisibleText_Xpath</t>
+  </si>
+  <si>
+    <t>((//div[@class='half-width seller-form-block']/div)[8]/select/option)[1]</t>
+  </si>
+  <si>
+    <t>ServiceProvider_OtherField_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='half-width seller-form-block']/div/input)[6]</t>
+  </si>
+  <si>
+    <t>(//div[@class='half-width seller-form-block']/div)[9]/following::button</t>
+  </si>
+  <si>
+    <t>HomePage_Header_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='fixed-navbar-block']/div</t>
+  </si>
+  <si>
+    <t>ReachUs_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='page']/following::div/div[3])[1]/h3</t>
+  </si>
+  <si>
+    <t>ReachUs_Address_Xpath</t>
+  </si>
+  <si>
+    <t>((//div[@class='page']/following::div/div[3])[1]/ul/li)[1]</t>
+  </si>
+  <si>
+    <t>ReachUs_ContactNo_Xpath</t>
+  </si>
+  <si>
+    <t>((//div[@class='page']/following::div/div[3])[1]/ul/li)[2]</t>
+  </si>
+  <si>
+    <t>ReachUs_Email_Xpath</t>
+  </si>
+  <si>
+    <t>((//div[@class='page']/following::div/div[3])[1]/ul/li)[3]</t>
+  </si>
+  <si>
+    <t>HelloText_AfterLogin_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='divLoggedUser']/ul/li[1]</t>
+  </si>
+  <si>
+    <t>LogoutButton_Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='btnLogout']</t>
+  </si>
+  <si>
+    <t>Shopping Kart Page</t>
+  </si>
+  <si>
+    <t>ShoppingKart_Header_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='well-block']/div/h2)[1]</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>LoginPOPUp_Header_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='magestore-login-form-popup']/h3</t>
+  </si>
+  <si>
+    <t>LoginPOPUp_CloseButton_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='sociallogin-close-popup']</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>SignIn_Header_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='magestore-register-form-popup']/h3)[2]</t>
+  </si>
+  <si>
+    <t>SignIn_CloseButton_Xpath</t>
+  </si>
+  <si>
+    <t>ProductListPage</t>
+  </si>
+  <si>
+    <t>DiscountRange_CheckBox_Xpath_1</t>
+  </si>
+  <si>
+    <t>//dd[@id='blockDiscount Range']/ol/li[</t>
+  </si>
+  <si>
+    <t>DiscountRange_CheckBox_Xpath_2</t>
+  </si>
+  <si>
+    <t>]/a</t>
+  </si>
+  <si>
+    <t>DiscountRange_CheckBox_Xpath</t>
+  </si>
+  <si>
+    <t>//dd[@id='blockDiscount Range']/ol/li/a</t>
+  </si>
+  <si>
+    <t>SellerPage</t>
+  </si>
+  <si>
+    <t>Seller_HeaderText_Xpath</t>
+  </si>
+  <si>
+    <t>//h1[@id='login_register']</t>
+  </si>
+  <si>
+    <t>ServiceProviderPage</t>
+  </si>
+  <si>
+    <t>ServiceProvider_Xpath</t>
+  </si>
+  <si>
+    <t>//form[@class='form-inline-search ng-pristine ng-valid']/following::h2</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Calculator_Header_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='navbar-header']/h5</t>
+  </si>
+  <si>
+    <t>ContactUs_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='row box-1-contact']/div/h1</t>
+  </si>
+  <si>
+    <t>ProductDetails Page</t>
+  </si>
+  <si>
+    <t>AddToList_Xpath</t>
+  </si>
+  <si>
+    <t>PlaceOrderButton_Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='checkout-types chkop']/a</t>
+  </si>
+  <si>
+    <t>ProductName_Xpath</t>
+  </si>
+  <si>
+    <t>(//div[@class='yt-products-container clearfix']//a)[2]</t>
   </si>
 </sst>
 </file>
@@ -227,7 +1607,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,10 +1645,28 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF2A00FF"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -326,20 +1724,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,8 +1749,48 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -444,289 +1870,3035 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A280" activeCellId="0" sqref="A280"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="73.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="102.729591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="8" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="8" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="8" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="9" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="9" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" s="8"/>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B255" s="9"/>
+      <c r="C255" s="10"/>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B257" s="8"/>
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="12"/>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B263" s="13"/>
+      <c r="C263" s="7"/>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B267" s="9"/>
+      <c r="C267" s="12"/>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B269" s="13"/>
+      <c r="C269" s="7"/>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B271" s="15"/>
+      <c r="C271" s="15"/>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="15"/>
+      <c r="B273" s="15"/>
+      <c r="C273" s="15"/>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="275" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="16" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/msupply_5/src/test/resources/Locators.xlsx
+++ b/msupply_5/src/test/resources/Locators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="527">
   <si>
     <t>Key</t>
   </si>
@@ -1490,6 +1490,9 @@
   </si>
   <si>
     <t>//*[@id='btnLogout']</t>
+  </si>
+  <si>
+    <t>MainCategory_Xpath</t>
   </si>
   <si>
     <t>Shopping Kart Page</t>
@@ -1870,18 +1873,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C65536"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A280" activeCellId="0" sqref="A280"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A240" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C255" activeCellId="0" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.7193877551021"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,206 +4677,206 @@
         <v>489</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="7" t="s">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B255" s="9"/>
-      <c r="C255" s="10"/>
+      <c r="B255" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C256" s="5" t="s">
+      <c r="B256" s="9"/>
+      <c r="C256" s="10"/>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="5" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="11" t="s">
+      <c r="B257" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B257" s="8"/>
-      <c r="C257" s="1"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>495</v>
-      </c>
+      <c r="B258" s="8"/>
+      <c r="C258" s="1"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C259" s="5" t="s">
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="5" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="7" t="s">
+      <c r="B260" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B260" s="9"/>
-      <c r="C260" s="12"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>500</v>
-      </c>
+      <c r="B261" s="9"/>
+      <c r="C261" s="12"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>497</v>
-      </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="7" t="s">
+      <c r="A263" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B263" s="13"/>
-      <c r="C263" s="7"/>
+      <c r="B263" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>504</v>
-      </c>
+      <c r="B264" s="13"/>
+      <c r="C264" s="7"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B266" s="2" t="s">
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="7" t="s">
+      <c r="C267" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B267" s="9"/>
-      <c r="C267" s="12"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C268" s="5" t="s">
+      <c r="B268" s="9"/>
+      <c r="C268" s="12"/>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="7" t="s">
+      <c r="B269" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B269" s="13"/>
-      <c r="C269" s="7"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="6" t="s">
+      <c r="A270" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C270" s="14" t="s">
+      <c r="B270" s="13"/>
+      <c r="C270" s="7"/>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="6" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="7" t="s">
+      <c r="B271" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="B271" s="15"/>
-      <c r="C271" s="15"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C272" s="3" t="s">
+      <c r="B272" s="15"/>
+      <c r="C272" s="15"/>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="5" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="15"/>
-      <c r="B273" s="15"/>
-      <c r="C273" s="15"/>
+      <c r="B273" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C274" s="5" t="s">
+      <c r="A274" s="15"/>
+      <c r="B274" s="15"/>
+      <c r="C274" s="15"/>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="5" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="275" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="16" t="s">
+      <c r="B275" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+    <row r="276" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="16" t="s">
         <v>521</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4884,21 +4887,31 @@
         <v>4</v>
       </c>
       <c r="C277" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="B278" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C278" s="0" t="s">
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B279" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/msupply_5/src/test/resources/Locators.xlsx
+++ b/msupply_5/src/test/resources/Locators.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="526">
   <si>
     <t>Key</t>
   </si>
@@ -1490,9 +1490,6 @@
   </si>
   <si>
     <t>//*[@id='btnLogout']</t>
-  </si>
-  <si>
-    <t>MainCategory_Xpath</t>
   </si>
   <si>
     <t>Shopping Kart Page</t>
@@ -1873,18 +1870,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C279"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A240" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C255" activeCellId="0" sqref="C255"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A280" activeCellId="0" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.7193877551021"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,206 +4674,206 @@
         <v>489</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="5" t="s">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>318</v>
-      </c>
+      <c r="B255" s="9"/>
+      <c r="C255" s="10"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="7" t="s">
+      <c r="A256" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B256" s="9"/>
-      <c r="C256" s="10"/>
+      <c r="B256" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C257" s="5" t="s">
+      <c r="A257" s="11" t="s">
         <v>493</v>
       </c>
+      <c r="B257" s="8"/>
+      <c r="C257" s="1"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="11" t="s">
+      <c r="A258" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B258" s="8"/>
-      <c r="C258" s="1"/>
+      <c r="B258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C260" s="5" t="s">
+      <c r="A260" s="7" t="s">
         <v>498</v>
       </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="12"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B261" s="9"/>
-      <c r="C261" s="12"/>
+      <c r="B261" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>498</v>
-      </c>
+      <c r="B263" s="13"/>
+      <c r="C263" s="7"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="7" t="s">
+      <c r="A264" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B264" s="13"/>
-      <c r="C264" s="7"/>
+      <c r="B264" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C267" s="5" t="s">
+      <c r="A267" s="7" t="s">
         <v>509</v>
       </c>
+      <c r="B267" s="9"/>
+      <c r="C267" s="12"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="7" t="s">
+      <c r="A268" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B268" s="9"/>
-      <c r="C268" s="12"/>
+      <c r="B268" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C269" s="5" t="s">
+      <c r="A269" s="7" t="s">
         <v>512</v>
       </c>
+      <c r="B269" s="13"/>
+      <c r="C269" s="7"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="7" t="s">
+      <c r="A270" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B270" s="13"/>
-      <c r="C270" s="7"/>
+      <c r="B270" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C271" s="14" t="s">
+      <c r="A271" s="7" t="s">
         <v>515</v>
       </c>
+      <c r="B271" s="15"/>
+      <c r="C271" s="15"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="7" t="s">
+      <c r="A272" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B272" s="15"/>
-      <c r="C272" s="15"/>
+      <c r="B272" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C273" s="3" t="s">
+      <c r="A273" s="15"/>
+      <c r="B273" s="15"/>
+      <c r="C273" s="15"/>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="5" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="15"/>
-      <c r="B274" s="15"/>
-      <c r="C274" s="15"/>
-    </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="5" t="s">
+      <c r="B274" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C275" s="5" t="s">
+    </row>
+    <row r="275" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="16" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="276" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="16" t="s">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
         <v>521</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,31 +4884,21 @@
         <v>4</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>526</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
